--- a/Manual_Testing/TectCase.xlsx
+++ b/Manual_Testing/TectCase.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="34">
   <si>
     <t>Id</t>
   </si>
@@ -79,17 +79,11 @@
     <t>Tc_LOG_FN_003</t>
   </si>
   <si>
-    <t>Tc_LOG_FN_004</t>
-  </si>
-  <si>
     <t>The valid Mobile Number is "01286214591"
 The valid Password is "alya1234"</t>
   </si>
   <si>
     <t>Fail</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Note The TC4 is assumation based for bug report </t>
   </si>
   <si>
     <t>Validate all valid data</t>
@@ -118,28 +112,8 @@
     <t>Kholoud</t>
   </si>
   <si>
-    <t>Validate field Password for 
-Length at least as 8 chara or number</t>
-  </si>
-  <si>
     <t>1- Open Chrome browser 
 2-Go to Url https://web.vodafone.com.eg</t>
-  </si>
-  <si>
-    <t>The valid Mobile Number is "01286214591"
-The valid Password is "1234"</t>
-  </si>
-  <si>
-    <t>1-Open the browser 
-2-Go to URL "https://web.vodafone.com.eg" 
-3-enter in field mobile number 
-4-enter in filed password 
-5-check in check box 
-6-click on button "Register"</t>
-  </si>
-  <si>
-    <t>Validate The field Mobile number
-Is not start 01</t>
   </si>
   <si>
     <t>The valid Mobile Number is "286214591"
@@ -206,6 +180,13 @@
     <t xml:space="preserve">
 the button "Go To my Account " 
 is not Clickable</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Note The TC3 is assumation based for bug report </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Validate The field Mobile number
+Is not start 01 </t>
   </si>
 </sst>
 </file>
@@ -584,10 +565,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:Z9"/>
+  <dimension ref="A1:Z8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
@@ -657,28 +638,28 @@
         <v>10</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>11</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E2" s="7" t="s">
         <v>12</v>
       </c>
       <c r="F2" s="12" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I2" s="7" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="J2" s="9" t="s">
         <v>13</v>
@@ -700,33 +681,33 @@
       <c r="Y2" s="10"/>
       <c r="Z2" s="10"/>
     </row>
-    <row r="3" spans="1:26" ht="90.75" customHeight="1" thickBot="1">
+    <row r="3" spans="1:26" ht="121.5" customHeight="1" thickBot="1">
       <c r="A3" s="7" t="s">
         <v>14</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="C3" s="7" t="s">
         <v>11</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="I3" s="7" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="J3" s="9" t="s">
         <v>13</v>
@@ -748,108 +729,60 @@
       <c r="Y3" s="7"/>
       <c r="Z3" s="7"/>
     </row>
-    <row r="4" spans="1:26" ht="121.5" customHeight="1" thickBot="1">
+    <row r="4" spans="1:26" ht="102" customHeight="1" thickBot="1">
       <c r="A4" s="7" t="s">
         <v>16</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="D4" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="E4" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>15</v>
-      </c>
       <c r="G4" s="7" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="I4" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="J4" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="K4" s="7"/>
-      <c r="L4" s="7"/>
-      <c r="M4" s="7"/>
-      <c r="N4" s="7"/>
-      <c r="O4" s="7"/>
-      <c r="P4" s="7"/>
-      <c r="Q4" s="7"/>
-      <c r="R4" s="7"/>
-      <c r="S4" s="7"/>
-      <c r="T4" s="7"/>
-      <c r="U4" s="7"/>
-      <c r="V4" s="7"/>
-      <c r="W4" s="7"/>
-      <c r="X4" s="7"/>
-      <c r="Y4" s="7"/>
-      <c r="Z4" s="7"/>
+        <v>22</v>
+      </c>
+      <c r="J4" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K4" s="10"/>
+      <c r="L4" s="10"/>
+      <c r="M4" s="10"/>
+      <c r="N4" s="10"/>
+      <c r="O4" s="10"/>
+      <c r="P4" s="10"/>
+      <c r="Q4" s="10"/>
+      <c r="R4" s="10"/>
+      <c r="S4" s="10"/>
+      <c r="T4" s="10"/>
+      <c r="U4" s="10"/>
+      <c r="V4" s="10"/>
+      <c r="W4" s="10"/>
+      <c r="X4" s="10"/>
+      <c r="Y4" s="10"/>
+      <c r="Z4" s="10"/>
     </row>
-    <row r="5" spans="1:26" ht="102" customHeight="1" thickBot="1">
-      <c r="A5" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="H5" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="I5" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="J5" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="K5" s="10"/>
-      <c r="L5" s="10"/>
-      <c r="M5" s="10"/>
-      <c r="N5" s="10"/>
-      <c r="O5" s="10"/>
-      <c r="P5" s="10"/>
-      <c r="Q5" s="10"/>
-      <c r="R5" s="10"/>
-      <c r="S5" s="10"/>
-      <c r="T5" s="10"/>
-      <c r="U5" s="10"/>
-      <c r="V5" s="10"/>
-      <c r="W5" s="10"/>
-      <c r="X5" s="10"/>
-      <c r="Y5" s="10"/>
-      <c r="Z5" s="10"/>
+    <row r="7" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A7" s="5"/>
     </row>
     <row r="8" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A8" s="5"/>
-    </row>
-    <row r="9" spans="1:26" ht="15.75" customHeight="1">
-      <c r="B9" s="6" t="s">
-        <v>20</v>
+      <c r="B8" s="6" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -858,9 +791,8 @@
     <hyperlink ref="F2" r:id="rId2" display="https://web.vodafone.com.eg/"/>
     <hyperlink ref="D3" r:id="rId3" display="https://web.vodafone.com.eg/"/>
     <hyperlink ref="D4" r:id="rId4" display="https://web.vodafone.com.eg/"/>
-    <hyperlink ref="D5" r:id="rId5" display="https://web.vodafone.com.eg/"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId6"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
 </worksheet>
 </file>